--- a/SS Raw Data.xlsx
+++ b/SS Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4D6465-5556-477E-A679-E52A0576218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F38D8-C836-45E8-AC9C-A2A2995AF26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE2108A9-E16B-4451-BE8F-1D4673EBAF76}"/>
   </bookViews>
@@ -5382,9 +5382,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5702,10 +5704,13 @@
   <dimension ref="A1:AG571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -5732,7 +5737,7 @@
       <c r="H1" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1718</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -5824,7 +5829,7 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>40909</v>
       </c>
       <c r="J2">
@@ -5907,7 +5912,7 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>41275</v>
       </c>
       <c r="J3">
@@ -5990,7 +5995,7 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>41640</v>
       </c>
       <c r="J4">
@@ -6076,7 +6081,7 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>43466</v>
       </c>
       <c r="J5">
@@ -6159,7 +6164,7 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>43831</v>
       </c>
       <c r="J6">
@@ -6245,7 +6250,7 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>43831</v>
       </c>
       <c r="J7">
@@ -6328,7 +6333,7 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>44927</v>
       </c>
       <c r="J8">
@@ -6411,7 +6416,7 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>44927</v>
       </c>
       <c r="J9">
@@ -6494,7 +6499,7 @@
       <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>44927</v>
       </c>
       <c r="J10">
@@ -6577,7 +6582,7 @@
       <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>45292</v>
       </c>
       <c r="J11">
@@ -6663,7 +6668,7 @@
       <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>40940</v>
       </c>
       <c r="J12">
@@ -6746,7 +6751,7 @@
       <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>42401</v>
       </c>
       <c r="J13">
@@ -6829,7 +6834,7 @@
       <c r="H14" t="s">
         <v>60</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>42401</v>
       </c>
       <c r="J14">
@@ -6912,7 +6917,7 @@
       <c r="H15" t="s">
         <v>60</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>42401</v>
       </c>
       <c r="J15">
@@ -6995,7 +7000,7 @@
       <c r="H16" t="s">
         <v>66</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>44228</v>
       </c>
       <c r="J16">
@@ -7078,7 +7083,7 @@
       <c r="H17" t="s">
         <v>69</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>44228</v>
       </c>
       <c r="J17">
@@ -7158,7 +7163,7 @@
       <c r="H18" t="s">
         <v>74</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>40969</v>
       </c>
       <c r="J18">
@@ -7241,7 +7246,7 @@
       <c r="H19" t="s">
         <v>77</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>41334</v>
       </c>
       <c r="J19">
@@ -7324,7 +7329,7 @@
       <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>41334</v>
       </c>
       <c r="J20">
@@ -7407,7 +7412,7 @@
       <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>41334</v>
       </c>
       <c r="J21">
@@ -7490,7 +7495,7 @@
       <c r="H22" t="s">
         <v>84</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>41334</v>
       </c>
       <c r="J22">
@@ -7573,7 +7578,7 @@
       <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>41334</v>
       </c>
       <c r="J23">
@@ -7656,7 +7661,7 @@
       <c r="H24" t="s">
         <v>89</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>41699</v>
       </c>
       <c r="J24">
@@ -7739,7 +7744,7 @@
       <c r="H25" t="s">
         <v>59</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>42064</v>
       </c>
       <c r="J25">
@@ -7822,7 +7827,7 @@
       <c r="H26" t="s">
         <v>95</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>42064</v>
       </c>
       <c r="J26">
@@ -7905,7 +7910,7 @@
       <c r="H27" t="s">
         <v>95</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>42064</v>
       </c>
       <c r="J27">
@@ -7988,7 +7993,7 @@
       <c r="H28" t="s">
         <v>95</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>42064</v>
       </c>
       <c r="J28">
@@ -8071,7 +8076,7 @@
       <c r="H29" t="s">
         <v>95</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>42064</v>
       </c>
       <c r="J29">
@@ -8154,7 +8159,7 @@
       <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>42064</v>
       </c>
       <c r="J30">
@@ -8237,7 +8242,7 @@
       <c r="H31" t="s">
         <v>60</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>42430</v>
       </c>
       <c r="J31">
@@ -8320,7 +8325,7 @@
       <c r="H32" t="s">
         <v>60</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>42430</v>
       </c>
       <c r="J32">
@@ -8403,7 +8408,7 @@
       <c r="H33" t="s">
         <v>60</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>42430</v>
       </c>
       <c r="J33">
@@ -8486,7 +8491,7 @@
       <c r="H34" t="s">
         <v>60</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>42430</v>
       </c>
       <c r="J34">
@@ -8569,7 +8574,7 @@
       <c r="H35" t="s">
         <v>111</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>42795</v>
       </c>
       <c r="J35">
@@ -8652,7 +8657,7 @@
       <c r="H36" t="s">
         <v>111</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>42795</v>
       </c>
       <c r="J36">
@@ -8735,7 +8740,7 @@
       <c r="H37" t="s">
         <v>111</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>42795</v>
       </c>
       <c r="J37">
@@ -8818,7 +8823,7 @@
       <c r="H38" t="s">
         <v>111</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>42795</v>
       </c>
       <c r="J38">
@@ -8901,7 +8906,7 @@
       <c r="H39" t="s">
         <v>111</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>42795</v>
       </c>
       <c r="J39">
@@ -8984,7 +8989,7 @@
       <c r="H40" t="s">
         <v>118</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>42795</v>
       </c>
       <c r="J40">
@@ -9067,7 +9072,7 @@
       <c r="H41" t="s">
         <v>120</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>42795</v>
       </c>
       <c r="J41">
@@ -9150,7 +9155,7 @@
       <c r="H42" t="s">
         <v>122</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>43160</v>
       </c>
       <c r="J42">
@@ -9233,7 +9238,7 @@
       <c r="H43" t="s">
         <v>122</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>43160</v>
       </c>
       <c r="J43">
@@ -9316,7 +9321,7 @@
       <c r="H44" t="s">
         <v>122</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>43160</v>
       </c>
       <c r="J44">
@@ -9399,7 +9404,7 @@
       <c r="H45" t="s">
         <v>122</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>43160</v>
       </c>
       <c r="J45">
@@ -9482,7 +9487,7 @@
       <c r="H46" t="s">
         <v>122</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>43160</v>
       </c>
       <c r="J46">
@@ -9565,7 +9570,7 @@
       <c r="H47" t="s">
         <v>122</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>43160</v>
       </c>
       <c r="J47">
@@ -9648,7 +9653,7 @@
       <c r="H48" t="s">
         <v>122</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>43160</v>
       </c>
       <c r="J48">
@@ -9731,7 +9736,7 @@
       <c r="H49" t="s">
         <v>122</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>43160</v>
       </c>
       <c r="J49">
@@ -9814,7 +9819,7 @@
       <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>43160</v>
       </c>
       <c r="J50">
@@ -9897,7 +9902,7 @@
       <c r="H51" t="s">
         <v>142</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>43525</v>
       </c>
       <c r="J51">
@@ -9980,7 +9985,7 @@
       <c r="H52" t="s">
         <v>142</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>43525</v>
       </c>
       <c r="J52">
@@ -10063,7 +10068,7 @@
       <c r="H53" t="s">
         <v>142</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>43525</v>
       </c>
       <c r="J53">
@@ -10146,7 +10151,7 @@
       <c r="H54" t="s">
         <v>147</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>43891</v>
       </c>
       <c r="J54">
@@ -10229,7 +10234,7 @@
       <c r="H55" t="s">
         <v>147</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>43891</v>
       </c>
       <c r="J55">
@@ -10312,7 +10317,7 @@
       <c r="H56" t="s">
         <v>147</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>43891</v>
       </c>
       <c r="J56">
@@ -10395,7 +10400,7 @@
       <c r="H57" t="s">
         <v>147</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>43891</v>
       </c>
       <c r="J57">
@@ -10478,7 +10483,7 @@
       <c r="H58" t="s">
         <v>152</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>43891</v>
       </c>
       <c r="J58">
@@ -10561,7 +10566,7 @@
       <c r="H59" t="s">
         <v>154</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>44256</v>
       </c>
       <c r="J59">
@@ -10644,7 +10649,7 @@
       <c r="H60" t="s">
         <v>154</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>44256</v>
       </c>
       <c r="J60">
@@ -10727,7 +10732,7 @@
       <c r="H61" t="s">
         <v>154</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>44256</v>
       </c>
       <c r="J61">
@@ -10810,7 +10815,7 @@
       <c r="H62" t="s">
         <v>41</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>44256</v>
       </c>
       <c r="J62">
@@ -10893,7 +10898,7 @@
       <c r="H63" t="s">
         <v>159</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>44256</v>
       </c>
       <c r="J63">
@@ -10976,7 +10981,7 @@
       <c r="H64" t="s">
         <v>159</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>44256</v>
       </c>
       <c r="J64">
@@ -11059,7 +11064,7 @@
       <c r="H65" t="s">
         <v>69</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>44621</v>
       </c>
       <c r="J65">
@@ -11142,7 +11147,7 @@
       <c r="H66" t="s">
         <v>164</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>44986</v>
       </c>
       <c r="J66">
@@ -11225,7 +11230,7 @@
       <c r="H67" t="s">
         <v>166</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>44986</v>
       </c>
       <c r="J67">
@@ -11308,7 +11313,7 @@
       <c r="H68" t="s">
         <v>95</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>42095</v>
       </c>
       <c r="J68">
@@ -11391,7 +11396,7 @@
       <c r="H69" t="s">
         <v>60</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>42461</v>
       </c>
       <c r="J69">
@@ -11474,7 +11479,7 @@
       <c r="H70" t="s">
         <v>111</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>42826</v>
       </c>
       <c r="J70">
@@ -11557,7 +11562,7 @@
       <c r="H71" t="s">
         <v>111</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>42826</v>
       </c>
       <c r="J71">
@@ -11640,7 +11645,7 @@
       <c r="H72" t="s">
         <v>111</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>42826</v>
       </c>
       <c r="J72">
@@ -11723,7 +11728,7 @@
       <c r="H73" t="s">
         <v>111</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>42826</v>
       </c>
       <c r="J73">
@@ -11806,7 +11811,7 @@
       <c r="H74" t="s">
         <v>111</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>42826</v>
       </c>
       <c r="J74">
@@ -11889,7 +11894,7 @@
       <c r="H75" t="s">
         <v>180</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>42826</v>
       </c>
       <c r="J75">
@@ -11972,7 +11977,7 @@
       <c r="H76" t="s">
         <v>183</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>42826</v>
       </c>
       <c r="J76">
@@ -12055,7 +12060,7 @@
       <c r="H77" t="s">
         <v>140</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>42826</v>
       </c>
       <c r="J77">
@@ -12138,7 +12143,7 @@
       <c r="H78" t="s">
         <v>122</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>43191</v>
       </c>
       <c r="J78">
@@ -12221,7 +12226,7 @@
       <c r="H79" t="s">
         <v>122</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>43191</v>
       </c>
       <c r="J79">
@@ -12304,7 +12309,7 @@
       <c r="H80" t="s">
         <v>142</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>43191</v>
       </c>
       <c r="J80">
@@ -12387,7 +12392,7 @@
       <c r="H81" t="s">
         <v>142</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>43556</v>
       </c>
       <c r="J81">
@@ -12470,7 +12475,7 @@
       <c r="H82" t="s">
         <v>142</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>43556</v>
       </c>
       <c r="J82">
@@ -12553,7 +12558,7 @@
       <c r="H83" t="s">
         <v>193</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>43556</v>
       </c>
       <c r="J83">
@@ -12636,7 +12641,7 @@
       <c r="H84" t="s">
         <v>195</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>43556</v>
       </c>
       <c r="J84">
@@ -12719,7 +12724,7 @@
       <c r="H85" t="s">
         <v>147</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>43922</v>
       </c>
       <c r="J85">
@@ -12802,7 +12807,7 @@
       <c r="H86" t="s">
         <v>154</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>44287</v>
       </c>
       <c r="J86">
@@ -12885,7 +12890,7 @@
       <c r="H87" t="s">
         <v>154</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>44287</v>
       </c>
       <c r="J87">
@@ -12968,7 +12973,7 @@
       <c r="H88" t="s">
         <v>203</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>44652</v>
       </c>
       <c r="J88">
@@ -13051,7 +13056,7 @@
       <c r="H89" t="s">
         <v>206</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>43586</v>
       </c>
       <c r="J89">
@@ -13134,7 +13139,7 @@
       <c r="H90" t="s">
         <v>65</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>43952</v>
       </c>
       <c r="J90">
@@ -13217,7 +13222,7 @@
       <c r="H91" t="s">
         <v>195</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>44317</v>
       </c>
       <c r="J91">
@@ -13300,7 +13305,7 @@
       <c r="H92" t="s">
         <v>213</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>41061</v>
       </c>
       <c r="J92">
@@ -13383,7 +13388,7 @@
       <c r="H93" t="s">
         <v>206</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>43983</v>
       </c>
       <c r="J93">
@@ -13466,7 +13471,7 @@
       <c r="H94" t="s">
         <v>218</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>44348</v>
       </c>
       <c r="J94">
@@ -13549,7 +13554,7 @@
       <c r="H95" t="s">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>44378</v>
       </c>
       <c r="J95">
@@ -13632,7 +13637,7 @@
       <c r="H96" t="s">
         <v>69</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>44743</v>
       </c>
       <c r="J96">
@@ -13715,7 +13720,7 @@
       <c r="H97" t="s">
         <v>36</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>45108</v>
       </c>
       <c r="J97">
@@ -13801,7 +13806,7 @@
       <c r="H98" t="s">
         <v>93</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>41122</v>
       </c>
       <c r="J98">
@@ -13884,7 +13889,7 @@
       <c r="H99" t="s">
         <v>235</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>42614</v>
       </c>
       <c r="J99">
@@ -13967,7 +13972,7 @@
       <c r="H100" t="s">
         <v>166</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>44805</v>
       </c>
       <c r="J100">
@@ -14050,7 +14055,7 @@
       <c r="H101" t="s">
         <v>213</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>41183</v>
       </c>
       <c r="J101">
@@ -14133,7 +14138,7 @@
       <c r="H102" t="s">
         <v>111</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>43009</v>
       </c>
       <c r="J102">
@@ -14216,7 +14221,7 @@
       <c r="H103" t="s">
         <v>247</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>44835</v>
       </c>
       <c r="J103">
@@ -14299,7 +14304,7 @@
       <c r="H104" t="s">
         <v>247</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>44866</v>
       </c>
       <c r="J104">
@@ -14382,7 +14387,7 @@
       <c r="H105" t="s">
         <v>247</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>45231</v>
       </c>
       <c r="J105">
@@ -14465,7 +14470,7 @@
       <c r="H106" t="s">
         <v>247</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>45231</v>
       </c>
       <c r="J106">
@@ -14548,7 +14553,7 @@
       <c r="H107" t="s">
         <v>122</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>41244</v>
       </c>
       <c r="J107">
@@ -14631,7 +14636,7 @@
       <c r="H108" t="s">
         <v>77</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <v>41609</v>
       </c>
       <c r="J108">
@@ -14714,7 +14719,7 @@
       <c r="H109" t="s">
         <v>154</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <v>41974</v>
       </c>
       <c r="J109">
@@ -14800,7 +14805,7 @@
       <c r="H110" t="s">
         <v>48</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>44166</v>
       </c>
       <c r="J110">
@@ -14883,7 +14888,7 @@
       <c r="H111" t="s">
         <v>274</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>44896</v>
       </c>
       <c r="J111">
@@ -14966,7 +14971,7 @@
       <c r="H112" t="s">
         <v>274</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>45261</v>
       </c>
       <c r="J112">
@@ -15055,7 +15060,7 @@
       <c r="H113" t="s">
         <v>284</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <v>44197</v>
       </c>
       <c r="J113">
@@ -15138,7 +15143,7 @@
       <c r="H114" t="s">
         <v>284</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>44197</v>
       </c>
       <c r="J114">
@@ -15221,7 +15226,7 @@
       <c r="H115" t="s">
         <v>284</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>44562</v>
       </c>
       <c r="J115">
@@ -15304,7 +15309,7 @@
       <c r="H116" t="s">
         <v>294</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>44927</v>
       </c>
       <c r="J116">
@@ -15387,7 +15392,7 @@
       <c r="H117" t="s">
         <v>284</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <v>44927</v>
       </c>
       <c r="J117">
@@ -15476,7 +15481,7 @@
       <c r="H118" t="s">
         <v>48</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <v>45292</v>
       </c>
       <c r="J118">
@@ -15559,7 +15564,7 @@
       <c r="H119" t="s">
         <v>305</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <v>45658</v>
       </c>
       <c r="J119">
@@ -15642,7 +15647,7 @@
       <c r="H120" t="s">
         <v>310</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <v>45689</v>
       </c>
       <c r="J120">
@@ -15728,7 +15733,7 @@
       <c r="H121" t="s">
         <v>314</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <v>44621</v>
       </c>
       <c r="J121">
@@ -15811,7 +15816,7 @@
       <c r="H122" t="s">
         <v>316</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>45352</v>
       </c>
       <c r="J122">
@@ -15894,7 +15899,7 @@
       <c r="H123" t="s">
         <v>316</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>45352</v>
       </c>
       <c r="J123">
@@ -15977,7 +15982,7 @@
       <c r="H124" t="s">
         <v>316</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>45352</v>
       </c>
       <c r="J124">
@@ -16060,7 +16065,7 @@
       <c r="H125" t="s">
         <v>316</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>45352</v>
       </c>
       <c r="J125">
@@ -16143,7 +16148,7 @@
       <c r="H126" t="s">
         <v>326</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <v>44652</v>
       </c>
       <c r="J126">
@@ -16226,7 +16231,7 @@
       <c r="H127" t="s">
         <v>4</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>45017</v>
       </c>
       <c r="J127">
@@ -16309,7 +16314,7 @@
       <c r="H128" t="s">
         <v>316</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <v>45017</v>
       </c>
       <c r="J128">
@@ -16395,7 +16400,7 @@
       <c r="H129" t="s">
         <v>314</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>45383</v>
       </c>
       <c r="J129">
@@ -16478,7 +16483,7 @@
       <c r="H130" t="s">
         <v>314</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>45383</v>
       </c>
       <c r="J130">
@@ -16561,7 +16566,7 @@
       <c r="H131" t="s">
         <v>338</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <v>45383</v>
       </c>
       <c r="J131">
@@ -16644,7 +16649,7 @@
       <c r="H132" t="s">
         <v>309</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>44682</v>
       </c>
       <c r="J132">
@@ -16727,7 +16732,7 @@
       <c r="H133" t="s">
         <v>342</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>45047</v>
       </c>
       <c r="J133">
@@ -16810,7 +16815,7 @@
       <c r="H134" t="s">
         <v>345</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>45047</v>
       </c>
       <c r="J134">
@@ -16893,7 +16898,7 @@
       <c r="H135" t="s">
         <v>309</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>45444</v>
       </c>
       <c r="J135">
@@ -16976,7 +16981,7 @@
       <c r="H136" t="s">
         <v>309</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <v>45444</v>
       </c>
       <c r="J136">
@@ -17059,7 +17064,7 @@
       <c r="H137" t="s">
         <v>353</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <v>44743</v>
       </c>
       <c r="J137">
@@ -17142,7 +17147,7 @@
       <c r="H138" t="s">
         <v>357</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <v>44743</v>
       </c>
       <c r="J138">
@@ -17231,7 +17236,7 @@
       <c r="H139" t="s">
         <v>365</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <v>45474</v>
       </c>
       <c r="J139">
@@ -17317,7 +17322,7 @@
       <c r="H140" t="s">
         <v>357</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <v>44044</v>
       </c>
       <c r="J140">
@@ -17400,7 +17405,7 @@
       <c r="H141" t="s">
         <v>284</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="3">
         <v>44409</v>
       </c>
       <c r="J141">
@@ -17486,7 +17491,7 @@
       <c r="H142" t="s">
         <v>375</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <v>44774</v>
       </c>
       <c r="J142">
@@ -17575,7 +17580,7 @@
       <c r="H143" t="s">
         <v>379</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <v>44774</v>
       </c>
       <c r="J143">
@@ -17658,7 +17663,7 @@
       <c r="H144" t="s">
         <v>383</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="3">
         <v>45139</v>
       </c>
       <c r="J144">
@@ -17744,7 +17749,7 @@
       <c r="H145" t="s">
         <v>365</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <v>45505</v>
       </c>
       <c r="J145">
@@ -17827,7 +17832,7 @@
       <c r="H146" t="s">
         <v>338</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <v>45505</v>
       </c>
       <c r="J146">
@@ -17913,7 +17918,7 @@
       <c r="H147" t="s">
         <v>345</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <v>44075</v>
       </c>
       <c r="J147">
@@ -17996,7 +18001,7 @@
       <c r="H148" t="s">
         <v>294</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <v>44440</v>
       </c>
       <c r="J148">
@@ -18079,7 +18084,7 @@
       <c r="H149" t="s">
         <v>235</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="3">
         <v>44440</v>
       </c>
       <c r="J149">
@@ -18162,7 +18167,7 @@
       <c r="H150" t="s">
         <v>402</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="3">
         <v>45170</v>
       </c>
       <c r="J150">
@@ -18248,7 +18253,7 @@
       <c r="H151" t="s">
         <v>284</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="3">
         <v>45170</v>
       </c>
       <c r="J151">
@@ -18331,7 +18336,7 @@
       <c r="H152" t="s">
         <v>316</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="3">
         <v>43739</v>
       </c>
       <c r="J152">
@@ -18414,7 +18419,7 @@
       <c r="H153" t="s">
         <v>342</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="3">
         <v>44105</v>
       </c>
       <c r="J153">
@@ -18497,7 +18502,7 @@
       <c r="H154" t="s">
         <v>345</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="3">
         <v>44105</v>
       </c>
       <c r="J154">
@@ -18583,7 +18588,7 @@
       <c r="H155" t="s">
         <v>365</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="3">
         <v>44470</v>
       </c>
       <c r="J155">
@@ -18666,7 +18671,7 @@
       <c r="H156" t="s">
         <v>345</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="3">
         <v>45200</v>
       </c>
       <c r="J156">
@@ -18749,7 +18754,7 @@
       <c r="H157" t="s">
         <v>425</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="3">
         <v>45200</v>
       </c>
       <c r="J157">
@@ -18835,7 +18840,7 @@
       <c r="H158" t="s">
         <v>430</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="3">
         <v>45200</v>
       </c>
       <c r="J158">
@@ -18924,7 +18929,7 @@
       <c r="H159" t="s">
         <v>309</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="3">
         <v>43770</v>
       </c>
       <c r="J159">
@@ -19007,7 +19012,7 @@
       <c r="H160" t="s">
         <v>365</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="3">
         <v>44866</v>
       </c>
       <c r="J160">
@@ -19090,7 +19095,7 @@
       <c r="H161" t="s">
         <v>294</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="3">
         <v>45231</v>
       </c>
       <c r="J161">
@@ -19176,7 +19181,7 @@
       <c r="H162" t="s">
         <v>425</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="3">
         <v>45231</v>
       </c>
       <c r="J162">
@@ -19259,7 +19264,7 @@
       <c r="H163" t="s">
         <v>444</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="3">
         <v>45597</v>
       </c>
       <c r="J163">
@@ -19342,7 +19347,7 @@
       <c r="H164" t="s">
         <v>284</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="3">
         <v>45597</v>
       </c>
       <c r="J164">
@@ -19425,7 +19430,7 @@
       <c r="H165" t="s">
         <v>284</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="3">
         <v>45597</v>
       </c>
       <c r="J165">
@@ -19511,7 +19516,7 @@
       <c r="H166" t="s">
         <v>454</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="3">
         <v>44531</v>
       </c>
       <c r="J166">
@@ -19597,7 +19602,7 @@
       <c r="H167" t="s">
         <v>379</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="3">
         <v>44531</v>
       </c>
       <c r="J167">
@@ -19680,7 +19685,7 @@
       <c r="H168" t="s">
         <v>357</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="3">
         <v>44896</v>
       </c>
       <c r="J168">
@@ -19766,7 +19771,7 @@
       <c r="H169" t="s">
         <v>274</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="3">
         <v>45261</v>
       </c>
       <c r="J169">
@@ -19849,7 +19854,7 @@
       <c r="H170" t="s">
         <v>326</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="3">
         <v>45261</v>
       </c>
       <c r="J170">
@@ -19932,7 +19937,7 @@
       <c r="H171" t="s">
         <v>326</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="3">
         <v>45261</v>
       </c>
       <c r="J171">
@@ -20015,7 +20020,7 @@
       <c r="H172" t="s">
         <v>326</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="3">
         <v>45261</v>
       </c>
       <c r="J172">
@@ -20098,7 +20103,7 @@
       <c r="H173" t="s">
         <v>454</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="3">
         <v>45261</v>
       </c>
       <c r="J173">
@@ -20181,7 +20186,7 @@
       <c r="H174" t="s">
         <v>477</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="3">
         <v>45261</v>
       </c>
       <c r="J174">
@@ -20267,7 +20272,7 @@
       <c r="H175" t="s">
         <v>284</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="3">
         <v>45261</v>
       </c>
       <c r="J175">
@@ -20350,7 +20355,7 @@
       <c r="H176" t="s">
         <v>484</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="3">
         <v>45261</v>
       </c>
       <c r="J176">
@@ -20433,7 +20438,7 @@
       <c r="H177" t="s">
         <v>326</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="3">
         <v>45627</v>
       </c>
       <c r="J177">
@@ -20519,7 +20524,7 @@
       <c r="H178" t="s">
         <v>454</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="3">
         <v>45627</v>
       </c>
       <c r="J178">
@@ -20608,7 +20613,7 @@
       <c r="H179" t="s">
         <v>284</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="3">
         <v>45658</v>
       </c>
       <c r="J179">
@@ -20700,7 +20705,7 @@
       <c r="H180" t="s">
         <v>284</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="3">
         <v>45505</v>
       </c>
       <c r="J180">
@@ -20792,7 +20797,7 @@
       <c r="H181" t="s">
         <v>218</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="3">
         <v>44197</v>
       </c>
       <c r="J181">
@@ -20878,7 +20883,7 @@
       <c r="H182" t="s">
         <v>484</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="3">
         <v>45658</v>
       </c>
       <c r="J182">
@@ -20967,7 +20972,7 @@
       <c r="H183" t="s">
         <v>509</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="3">
         <v>45505</v>
       </c>
       <c r="J183">
@@ -21056,7 +21061,7 @@
       <c r="H184" t="s">
         <v>425</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="3">
         <v>44835</v>
       </c>
       <c r="J184">
@@ -21142,7 +21147,7 @@
       <c r="H185" t="s">
         <v>202</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="3">
         <v>43070</v>
       </c>
       <c r="J185">
@@ -21228,7 +21233,7 @@
       <c r="H186" t="s">
         <v>520</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="3">
         <v>44682</v>
       </c>
       <c r="J186">
@@ -21314,7 +21319,7 @@
       <c r="H187" t="s">
         <v>284</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="3">
         <v>45689</v>
       </c>
       <c r="J187">
@@ -21400,7 +21405,7 @@
       <c r="H188" t="s">
         <v>284</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="3">
         <v>44713</v>
       </c>
       <c r="J188">
@@ -21486,7 +21491,7 @@
       <c r="H189" t="s">
         <v>36</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="3">
         <v>44197</v>
       </c>
       <c r="J189">
@@ -21575,7 +21580,7 @@
       <c r="H190" t="s">
         <v>536</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="3">
         <v>45017</v>
       </c>
       <c r="J190">
@@ -21661,7 +21666,7 @@
       <c r="H191" t="s">
         <v>540</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="3">
         <v>44958</v>
       </c>
       <c r="J191">
@@ -21747,7 +21752,7 @@
       <c r="H192" t="s">
         <v>314</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="3">
         <v>44621</v>
       </c>
       <c r="J192">
@@ -21833,7 +21838,7 @@
       <c r="H193" t="s">
         <v>48</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="3">
         <v>45292</v>
       </c>
       <c r="J193">
@@ -21925,7 +21930,7 @@
       <c r="H194" t="s">
         <v>48</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="3">
         <v>45292</v>
       </c>
       <c r="J194">
@@ -22011,7 +22016,7 @@
       <c r="H195" t="s">
         <v>48</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="3">
         <v>45292</v>
       </c>
       <c r="J195">
@@ -22100,7 +22105,7 @@
       <c r="H196" t="s">
         <v>247</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="3">
         <v>44501</v>
       </c>
       <c r="J196">
@@ -22186,7 +22191,7 @@
       <c r="H197" t="s">
         <v>48</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="3">
         <v>45292</v>
       </c>
       <c r="J197">
@@ -22272,7 +22277,7 @@
       <c r="H198" t="s">
         <v>309</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="3">
         <v>44621</v>
       </c>
       <c r="J198">
@@ -22358,7 +22363,7 @@
       <c r="H199" t="s">
         <v>284</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="3">
         <v>44105</v>
       </c>
       <c r="J199">
@@ -22444,7 +22449,7 @@
       <c r="H200" t="s">
         <v>48</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="3">
         <v>45292</v>
       </c>
       <c r="J200">
@@ -22533,7 +22538,7 @@
       <c r="H201" t="s">
         <v>578</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="3">
         <v>45627</v>
       </c>
       <c r="J201">
@@ -22625,7 +22630,7 @@
       <c r="H202" t="s">
         <v>305</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="3">
         <v>45658</v>
       </c>
       <c r="J202">
@@ -22717,7 +22722,7 @@
       <c r="H203" t="s">
         <v>338</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="3">
         <v>45505</v>
       </c>
       <c r="J203">
@@ -22812,7 +22817,7 @@
       <c r="H204" t="s">
         <v>401</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="3">
         <v>44013</v>
       </c>
       <c r="J204">
@@ -22901,7 +22906,7 @@
       <c r="H205" t="s">
         <v>284</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="3">
         <v>45108</v>
       </c>
       <c r="J205">
@@ -22990,7 +22995,7 @@
       <c r="H206" t="s">
         <v>589</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="3">
         <v>45231</v>
       </c>
       <c r="J206">
@@ -23076,7 +23081,7 @@
       <c r="H207" t="s">
         <v>284</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="3">
         <v>45261</v>
       </c>
       <c r="J207">
@@ -23165,7 +23170,7 @@
       <c r="H208" t="s">
         <v>284</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="3">
         <v>45658</v>
       </c>
       <c r="J208">
@@ -23251,7 +23256,7 @@
       <c r="H209" t="s">
         <v>364</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="3">
         <v>45108</v>
       </c>
       <c r="J209">
@@ -23337,7 +23342,7 @@
       <c r="H210" t="s">
         <v>284</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="3">
         <v>44562</v>
       </c>
       <c r="J210">
@@ -23423,7 +23428,7 @@
       <c r="H211" t="s">
         <v>284</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="3">
         <v>44562</v>
       </c>
       <c r="J211">
@@ -23509,7 +23514,7 @@
       <c r="H212" t="s">
         <v>379</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="3">
         <v>45292</v>
       </c>
       <c r="J212">
@@ -23595,7 +23600,7 @@
       <c r="H213" t="s">
         <v>379</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="3">
         <v>45292</v>
       </c>
       <c r="J213">
@@ -23687,7 +23692,7 @@
       <c r="H214" t="s">
         <v>284</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="3">
         <v>45658</v>
       </c>
       <c r="J214">
@@ -23773,7 +23778,7 @@
       <c r="H215" t="s">
         <v>284</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="3">
         <v>44562</v>
       </c>
       <c r="J215">
@@ -23859,7 +23864,7 @@
       <c r="H216" t="s">
         <v>284</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="3">
         <v>45505</v>
       </c>
       <c r="J216">
@@ -23951,7 +23956,7 @@
       <c r="H217" t="s">
         <v>536</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="3">
         <v>45047</v>
       </c>
       <c r="J217">
@@ -24043,7 +24048,7 @@
       <c r="H218" t="s">
         <v>342</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="3">
         <v>45383</v>
       </c>
       <c r="J218">
@@ -24135,7 +24140,7 @@
       <c r="H219" t="s">
         <v>284</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="3">
         <v>45627</v>
       </c>
       <c r="J219">
@@ -24227,7 +24232,7 @@
       <c r="H220" t="s">
         <v>284</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="3">
         <v>45627</v>
       </c>
       <c r="J220">
@@ -24319,7 +24324,7 @@
       <c r="H221" t="s">
         <v>284</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="3">
         <v>45627</v>
       </c>
       <c r="J221">
@@ -24411,7 +24416,7 @@
       <c r="H222" t="s">
         <v>4</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="3">
         <v>44743</v>
       </c>
       <c r="J222">
@@ -24503,7 +24508,7 @@
       <c r="H223" t="s">
         <v>294</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="3">
         <v>44562</v>
       </c>
       <c r="J223">
@@ -24595,7 +24600,7 @@
       <c r="H224" t="s">
         <v>284</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="3">
         <v>44927</v>
       </c>
       <c r="J224">
@@ -24687,7 +24692,7 @@
       <c r="H225" t="s">
         <v>284</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="3">
         <v>44927</v>
       </c>
       <c r="J225">
@@ -24779,7 +24784,7 @@
       <c r="H226" t="s">
         <v>284</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="3">
         <v>44927</v>
       </c>
       <c r="J226">
@@ -24871,7 +24876,7 @@
       <c r="H227" t="s">
         <v>284</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="3">
         <v>44927</v>
       </c>
       <c r="J227">
@@ -24963,7 +24968,7 @@
       <c r="H228" t="s">
         <v>316</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="3">
         <v>45017</v>
       </c>
       <c r="J228">
@@ -25055,7 +25060,7 @@
       <c r="H229" t="s">
         <v>284</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="3">
         <v>45108</v>
       </c>
       <c r="J229">
@@ -25141,7 +25146,7 @@
       <c r="H230" t="s">
         <v>284</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="3">
         <v>45292</v>
       </c>
       <c r="J230">
@@ -25227,7 +25232,7 @@
       <c r="H231" t="s">
         <v>284</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="3">
         <v>45292</v>
       </c>
       <c r="J231">
@@ -25319,7 +25324,7 @@
       <c r="H232" t="s">
         <v>284</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="3">
         <v>44562</v>
       </c>
       <c r="J232">
@@ -25411,7 +25416,7 @@
       <c r="H233" t="s">
         <v>654</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="3">
         <v>45597</v>
       </c>
       <c r="J233">
@@ -25512,7 +25517,7 @@
       <c r="H234" t="s">
         <v>316</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="3">
         <v>45536</v>
       </c>
       <c r="J234">
@@ -25601,7 +25606,7 @@
       <c r="H235" t="s">
         <v>520</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="3">
         <v>44713</v>
       </c>
       <c r="J235">
@@ -25699,7 +25704,7 @@
       <c r="H236" t="s">
         <v>383</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="3">
         <v>45505</v>
       </c>
       <c r="J236">
@@ -25788,7 +25793,7 @@
       <c r="H237" t="s">
         <v>48</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="3">
         <v>45292</v>
       </c>
       <c r="J237">
@@ -25877,7 +25882,7 @@
       <c r="H238" t="s">
         <v>589</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="3">
         <v>45292</v>
       </c>
       <c r="J238">
@@ -25963,7 +25968,7 @@
       <c r="H239" t="s">
         <v>294</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="3">
         <v>43160</v>
       </c>
       <c r="J239">
@@ -26055,7 +26060,7 @@
       <c r="H240" t="s">
         <v>247</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="3">
         <v>43101</v>
       </c>
       <c r="J240">
@@ -26147,7 +26152,7 @@
       <c r="H241" t="s">
         <v>520</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="3">
         <v>44713</v>
       </c>
       <c r="J241">
@@ -26236,7 +26241,7 @@
       <c r="H242" t="s">
         <v>536</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="3">
         <v>43647</v>
       </c>
       <c r="J242">
@@ -26322,7 +26327,7 @@
       <c r="H243" t="s">
         <v>310</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="3">
         <v>44774</v>
       </c>
       <c r="J243">
@@ -26411,7 +26416,7 @@
       <c r="H244" t="s">
         <v>430</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="3">
         <v>45231</v>
       </c>
       <c r="J244">
@@ -26500,7 +26505,7 @@
       <c r="H245" t="s">
         <v>379</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="3">
         <v>45231</v>
       </c>
       <c r="J245">
@@ -26592,7 +26597,7 @@
       <c r="H246" t="s">
         <v>707</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="3">
         <v>45261</v>
       </c>
       <c r="J246">
@@ -26684,7 +26689,7 @@
       <c r="H247" t="s">
         <v>203</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="3">
         <v>43647</v>
       </c>
       <c r="J247">
@@ -26782,7 +26787,7 @@
       <c r="H248" t="s">
         <v>48</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="3">
         <v>44743</v>
       </c>
       <c r="J248">
@@ -26880,7 +26885,7 @@
       <c r="H249" t="s">
         <v>45</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="3">
         <v>45474</v>
       </c>
       <c r="J249">
@@ -26978,7 +26983,7 @@
       <c r="H250" t="s">
         <v>45</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="3">
         <v>45597</v>
       </c>
       <c r="J250">
@@ -27076,7 +27081,7 @@
       <c r="H251" t="s">
         <v>484</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="3">
         <v>45017</v>
       </c>
       <c r="J251">
@@ -27174,7 +27179,7 @@
       <c r="H252" t="s">
         <v>48</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="3">
         <v>44743</v>
       </c>
       <c r="J252">
@@ -27272,7 +27277,7 @@
       <c r="H253" t="s">
         <v>284</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="3">
         <v>44774</v>
       </c>
       <c r="J253">
@@ -27370,7 +27375,7 @@
       <c r="H254" t="s">
         <v>484</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="3">
         <v>44501</v>
       </c>
       <c r="J254">
@@ -27468,7 +27473,7 @@
       <c r="H255" t="s">
         <v>284</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="3">
         <v>44166</v>
       </c>
       <c r="J255">
@@ -27566,7 +27571,7 @@
       <c r="H256" t="s">
         <v>48</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="3">
         <v>43070</v>
       </c>
       <c r="J256">
@@ -27664,7 +27669,7 @@
       <c r="H257" t="s">
         <v>342</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="3">
         <v>44501</v>
       </c>
       <c r="J257">
@@ -27762,7 +27767,7 @@
       <c r="H258" t="s">
         <v>48</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="3">
         <v>43586</v>
       </c>
       <c r="J258">
@@ -27860,7 +27865,7 @@
       <c r="H259" t="s">
         <v>4</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="3">
         <v>43617</v>
       </c>
       <c r="J259">
@@ -27958,7 +27963,7 @@
       <c r="H260" t="s">
         <v>342</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="3">
         <v>44256</v>
       </c>
       <c r="J260">
@@ -28056,7 +28061,7 @@
       <c r="H261" t="s">
         <v>748</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="3">
         <v>45017</v>
       </c>
       <c r="J261">
@@ -28151,7 +28156,7 @@
       <c r="H262" t="s">
         <v>48</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="3">
         <v>42795</v>
       </c>
       <c r="J262">
@@ -28246,7 +28251,7 @@
       <c r="H263" t="s">
         <v>754</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="3">
         <v>44805</v>
       </c>
       <c r="J263">
@@ -28344,7 +28349,7 @@
       <c r="H264" t="s">
         <v>48</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="3">
         <v>45231</v>
       </c>
       <c r="J264">
@@ -28439,7 +28444,7 @@
       <c r="H265" t="s">
         <v>45</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="3">
         <v>44835</v>
       </c>
       <c r="J265">
@@ -28534,7 +28539,7 @@
       <c r="H266" t="s">
         <v>45</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="3">
         <v>44197</v>
       </c>
       <c r="J266">
@@ -28623,7 +28628,7 @@
       <c r="H267" t="s">
         <v>754</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="3">
         <v>45444</v>
       </c>
       <c r="J267">
@@ -28724,7 +28729,7 @@
       <c r="H268" t="s">
         <v>48</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="3">
         <v>45292</v>
       </c>
       <c r="J268">
@@ -28819,7 +28824,7 @@
       <c r="H269" t="s">
         <v>357</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="3">
         <v>45536</v>
       </c>
       <c r="J269">
@@ -28911,7 +28916,7 @@
       <c r="H270" t="s">
         <v>305</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="3">
         <v>45261</v>
       </c>
       <c r="J270">
@@ -28997,7 +29002,7 @@
       <c r="H271" t="s">
         <v>310</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="3">
         <v>45323</v>
       </c>
       <c r="J271">
@@ -29086,7 +29091,7 @@
       <c r="H272" t="s">
         <v>310</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="3">
         <v>45261</v>
       </c>
       <c r="J272">
@@ -29178,7 +29183,7 @@
       <c r="H273" t="s">
         <v>754</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="3">
         <v>45323</v>
       </c>
       <c r="J273">
@@ -29267,7 +29272,7 @@
       <c r="H274" t="s">
         <v>379</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="3">
         <v>44866</v>
       </c>
       <c r="J274">
@@ -29365,7 +29370,7 @@
       <c r="H275" t="s">
         <v>48</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="3">
         <v>44409</v>
       </c>
       <c r="J275">
@@ -29451,7 +29456,7 @@
       <c r="H276" t="s">
         <v>309</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="3">
         <v>44927</v>
       </c>
       <c r="J276">
@@ -29540,7 +29545,7 @@
       <c r="H277" t="s">
         <v>284</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="3">
         <v>44927</v>
       </c>
       <c r="J277">
@@ -29626,7 +29631,7 @@
       <c r="H278" t="s">
         <v>36</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="3">
         <v>43282</v>
       </c>
       <c r="J278">
@@ -29724,7 +29729,7 @@
       <c r="H279" t="s">
         <v>284</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="3">
         <v>45261</v>
       </c>
       <c r="J279">
@@ -29813,7 +29818,7 @@
       <c r="H280" t="s">
         <v>294</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="3">
         <v>43344</v>
       </c>
       <c r="J280">
@@ -29902,7 +29907,7 @@
       <c r="H281" t="s">
         <v>484</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="3">
         <v>45261</v>
       </c>
       <c r="J281">
@@ -29994,7 +29999,7 @@
       <c r="H282" t="s">
         <v>421</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="3">
         <v>44682</v>
       </c>
       <c r="J282">
@@ -30080,7 +30085,7 @@
       <c r="H283" t="s">
         <v>166</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="3">
         <v>44470</v>
       </c>
       <c r="J283">
@@ -30166,7 +30171,7 @@
       <c r="H284" t="s">
         <v>589</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="3">
         <v>44743</v>
       </c>
       <c r="J284">
@@ -30252,7 +30257,7 @@
       <c r="H285" t="s">
         <v>364</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="3">
         <v>44409</v>
       </c>
       <c r="J285">
@@ -30338,7 +30343,7 @@
       <c r="H286" t="s">
         <v>379</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="3">
         <v>45658</v>
       </c>
       <c r="J286">
@@ -30424,7 +30429,7 @@
       <c r="H287" t="s">
         <v>316</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="3">
         <v>45078</v>
       </c>
       <c r="J287">
@@ -30516,7 +30521,7 @@
       <c r="H288" t="s">
         <v>4</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="3">
         <v>44287</v>
       </c>
       <c r="J288">
@@ -30611,7 +30616,7 @@
       <c r="H289" t="s">
         <v>48</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="3">
         <v>45323</v>
       </c>
       <c r="J289">
@@ -30697,7 +30702,7 @@
       <c r="H290" t="s">
         <v>843</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="3">
         <v>44166</v>
       </c>
       <c r="J290">
@@ -30783,7 +30788,7 @@
       <c r="H291" t="s">
         <v>388</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="3">
         <v>44682</v>
       </c>
       <c r="J291">
@@ -30881,7 +30886,7 @@
       <c r="H292" t="s">
         <v>284</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="3">
         <v>44562</v>
       </c>
       <c r="J292">
@@ -30976,7 +30981,7 @@
       <c r="H293" t="s">
         <v>284</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="3">
         <v>44562</v>
       </c>
       <c r="J293">
@@ -31068,7 +31073,7 @@
       <c r="H294" t="s">
         <v>388</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="3">
         <v>44805</v>
       </c>
       <c r="J294">
@@ -31154,7 +31159,7 @@
       <c r="H295" t="s">
         <v>357</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="3">
         <v>45139</v>
       </c>
       <c r="J295">
@@ -31240,7 +31245,7 @@
       <c r="H296" t="s">
         <v>284</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="3">
         <v>45505</v>
       </c>
       <c r="J296">
@@ -31326,7 +31331,7 @@
       <c r="H297" t="s">
         <v>284</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="3">
         <v>45352</v>
       </c>
       <c r="J297">
@@ -31412,7 +31417,7 @@
       <c r="H298" t="s">
         <v>164</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="3">
         <v>44501</v>
       </c>
       <c r="J298">
@@ -31501,7 +31506,7 @@
       <c r="H299" t="s">
         <v>294</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="3">
         <v>44927</v>
       </c>
       <c r="J299">
@@ -31596,7 +31601,7 @@
       <c r="H300" t="s">
         <v>316</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="3">
         <v>45017</v>
       </c>
       <c r="J300">
@@ -31682,7 +31687,7 @@
       <c r="H301" t="s">
         <v>754</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="3">
         <v>44317</v>
       </c>
       <c r="J301">
@@ -31768,7 +31773,7 @@
       <c r="H302" t="s">
         <v>365</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="3">
         <v>45474</v>
       </c>
       <c r="J302">
@@ -31854,7 +31859,7 @@
       <c r="H303" t="s">
         <v>40</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="3">
         <v>44228</v>
       </c>
       <c r="J303">
@@ -31946,7 +31951,7 @@
       <c r="H304" t="s">
         <v>45</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="3">
         <v>44287</v>
       </c>
       <c r="J304">
@@ -32041,7 +32046,7 @@
       <c r="H305" t="s">
         <v>48</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="3">
         <v>44531</v>
       </c>
       <c r="J305">
@@ -32136,7 +32141,7 @@
       <c r="H306" t="s">
         <v>164</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="3">
         <v>43466</v>
       </c>
       <c r="J306">
@@ -32225,7 +32230,7 @@
       <c r="H307" t="s">
         <v>224</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="3">
         <v>44409</v>
       </c>
       <c r="J307">
@@ -32311,7 +32316,7 @@
       <c r="H308" t="s">
         <v>902</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="3">
         <v>45778</v>
       </c>
       <c r="J308">
@@ -32397,7 +32402,7 @@
       <c r="H309" t="s">
         <v>907</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="3">
         <v>44805</v>
       </c>
       <c r="J309">
@@ -32489,7 +32494,7 @@
       <c r="H310" t="s">
         <v>256</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="3">
         <v>44866</v>
       </c>
       <c r="J310">
@@ -32578,7 +32583,7 @@
       <c r="H311" t="s">
         <v>914</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="3">
         <v>44440</v>
       </c>
       <c r="J311">
@@ -32664,7 +32669,7 @@
       <c r="H312" t="s">
         <v>338</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="3">
         <v>45536</v>
       </c>
       <c r="J312">
@@ -32753,7 +32758,7 @@
       <c r="H313" t="s">
         <v>294</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="3">
         <v>45292</v>
       </c>
       <c r="J313">
@@ -32842,7 +32847,7 @@
       <c r="H314" t="s">
         <v>314</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="3">
         <v>45047</v>
       </c>
       <c r="J314">
@@ -32931,7 +32936,7 @@
       <c r="H315" t="s">
         <v>364</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="3">
         <v>45474</v>
       </c>
       <c r="J315">
@@ -33023,7 +33028,7 @@
       <c r="H316" t="s">
         <v>342</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="3">
         <v>45231</v>
       </c>
       <c r="J316">
@@ -33115,7 +33120,7 @@
       <c r="H317" t="s">
         <v>274</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="3">
         <v>44136</v>
       </c>
       <c r="J317">
@@ -33201,7 +33206,7 @@
       <c r="H318" t="s">
         <v>48</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="3">
         <v>44835</v>
       </c>
       <c r="J318">
@@ -33293,7 +33298,7 @@
       <c r="H319" t="s">
         <v>316</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="3">
         <v>45383</v>
       </c>
       <c r="J319">
@@ -33382,7 +33387,7 @@
       <c r="H320" t="s">
         <v>40</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="3">
         <v>44501</v>
       </c>
       <c r="J320">
@@ -33474,7 +33479,7 @@
       <c r="H321" t="s">
         <v>36</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="3">
         <v>44896</v>
       </c>
       <c r="J321">
@@ -33563,7 +33568,7 @@
       <c r="H322" t="s">
         <v>48</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="3">
         <v>44409</v>
       </c>
       <c r="J322">
@@ -33649,7 +33654,7 @@
       <c r="H323" t="s">
         <v>45</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="3">
         <v>44896</v>
       </c>
       <c r="J323">
@@ -33735,7 +33740,7 @@
       <c r="H324" t="s">
         <v>48</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="3">
         <v>45292</v>
       </c>
       <c r="J324">
@@ -33821,7 +33826,7 @@
       <c r="H325" t="s">
         <v>952</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="3">
         <v>45170</v>
       </c>
       <c r="J325">
@@ -33913,7 +33918,7 @@
       <c r="H326" t="s">
         <v>520</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="3">
         <v>44044</v>
       </c>
       <c r="J326">
@@ -33999,7 +34004,7 @@
       <c r="H327" t="s">
         <v>421</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="3">
         <v>44287</v>
       </c>
       <c r="J327">
@@ -34091,7 +34096,7 @@
       <c r="H328" t="s">
         <v>294</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="3">
         <v>44927</v>
       </c>
       <c r="J328">
@@ -34177,7 +34182,7 @@
       <c r="H329" t="s">
         <v>316</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="3">
         <v>45261</v>
       </c>
       <c r="J329">
@@ -34263,7 +34268,7 @@
       <c r="H330" t="s">
         <v>332</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="3">
         <v>45047</v>
       </c>
       <c r="J330">
@@ -34349,7 +34354,7 @@
       <c r="H331" t="s">
         <v>218</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="3">
         <v>44896</v>
       </c>
       <c r="J331">
@@ -34441,7 +34446,7 @@
       <c r="H332" t="s">
         <v>316</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="3">
         <v>45352</v>
       </c>
       <c r="J332">
@@ -34533,7 +34538,7 @@
       <c r="H333" t="s">
         <v>274</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="3">
         <v>44805</v>
       </c>
       <c r="J333">
@@ -34625,7 +34630,7 @@
       <c r="H334" t="s">
         <v>309</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="3">
         <v>45536</v>
       </c>
       <c r="J334">
@@ -34711,7 +34716,7 @@
       <c r="H335" t="s">
         <v>425</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="3">
         <v>45536</v>
       </c>
       <c r="J335">
@@ -34797,7 +34802,7 @@
       <c r="H336" t="s">
         <v>314</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="3">
         <v>45383</v>
       </c>
       <c r="J336">
@@ -34883,7 +34888,7 @@
       <c r="H337" t="s">
         <v>754</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="3">
         <v>45474</v>
       </c>
       <c r="J337">
@@ -34972,7 +34977,7 @@
       <c r="H338" t="s">
         <v>365</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="3">
         <v>45627</v>
       </c>
       <c r="J338">
@@ -35058,7 +35063,7 @@
       <c r="H339" t="s">
         <v>342</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="3">
         <v>45413</v>
       </c>
       <c r="J339">
@@ -35144,7 +35149,7 @@
       <c r="H340" t="s">
         <v>36</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="3">
         <v>42461</v>
       </c>
       <c r="J340">
@@ -35236,7 +35241,7 @@
       <c r="H341" t="s">
         <v>227</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="3">
         <v>43891</v>
       </c>
       <c r="J341">
@@ -35328,7 +35333,7 @@
       <c r="H342" t="s">
         <v>401</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="3">
         <v>43101</v>
       </c>
       <c r="J342">
@@ -35414,7 +35419,7 @@
       <c r="H343" t="s">
         <v>364</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="3">
         <v>44805</v>
       </c>
       <c r="J343">
@@ -35503,7 +35508,7 @@
       <c r="H344" t="s">
         <v>294</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="3">
         <v>45323</v>
       </c>
       <c r="J344">
@@ -35589,7 +35594,7 @@
       <c r="H345" t="s">
         <v>4</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="3">
         <v>44927</v>
       </c>
       <c r="J345">
@@ -35678,7 +35683,7 @@
       <c r="H346" t="s">
         <v>444</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="3">
         <v>44531</v>
       </c>
       <c r="J346">
@@ -35764,7 +35769,7 @@
       <c r="H347" t="s">
         <v>45</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="3">
         <v>44927</v>
       </c>
       <c r="J347">
@@ -35850,7 +35855,7 @@
       <c r="H348" t="s">
         <v>401</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="3">
         <v>44256</v>
       </c>
       <c r="J348">
@@ -35939,7 +35944,7 @@
       <c r="H349" t="s">
         <v>247</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="3">
         <v>45047</v>
       </c>
       <c r="J349">
@@ -36025,7 +36030,7 @@
       <c r="H350" t="s">
         <v>338</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="3">
         <v>45536</v>
       </c>
       <c r="J350">
@@ -36111,7 +36116,7 @@
       <c r="H351" t="s">
         <v>338</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="3">
         <v>45536</v>
       </c>
       <c r="J351">
@@ -36197,7 +36202,7 @@
       <c r="H352" t="s">
         <v>4</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="3">
         <v>43922</v>
       </c>
       <c r="J352">
@@ -36283,7 +36288,7 @@
       <c r="H353" t="s">
         <v>345</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="3">
         <v>44075</v>
       </c>
       <c r="J353">
@@ -36369,7 +36374,7 @@
       <c r="H354" t="s">
         <v>914</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="3">
         <v>44470</v>
       </c>
       <c r="J354">
@@ -36455,7 +36460,7 @@
       <c r="H355" t="s">
         <v>342</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="3">
         <v>44136</v>
       </c>
       <c r="J355">
@@ -36541,7 +36546,7 @@
       <c r="H356" t="s">
         <v>284</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="3">
         <v>45292</v>
       </c>
       <c r="J356">
@@ -36627,7 +36632,7 @@
       <c r="H357" t="s">
         <v>48</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="3">
         <v>45108</v>
       </c>
       <c r="J357">
@@ -36713,7 +36718,7 @@
       <c r="H358" t="s">
         <v>364</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="3">
         <v>43466</v>
       </c>
       <c r="J358">
@@ -36799,7 +36804,7 @@
       <c r="H359" t="s">
         <v>45</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="3">
         <v>43070</v>
       </c>
       <c r="J359">
@@ -36891,7 +36896,7 @@
       <c r="H360" t="s">
         <v>338</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="3">
         <v>45413</v>
       </c>
       <c r="J360">
@@ -36977,7 +36982,7 @@
       <c r="H361" t="s">
         <v>338</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="3">
         <v>45505</v>
       </c>
       <c r="J361">
@@ -37063,7 +37068,7 @@
       <c r="H362" t="s">
         <v>338</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="3">
         <v>45505</v>
       </c>
       <c r="J362">
@@ -37149,7 +37154,7 @@
       <c r="H363" t="s">
         <v>309</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="3">
         <v>45323</v>
       </c>
       <c r="J363">
@@ -37238,7 +37243,7 @@
       <c r="H364" t="s">
         <v>284</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="3">
         <v>44562</v>
       </c>
       <c r="J364">
@@ -37327,7 +37332,7 @@
       <c r="H365" t="s">
         <v>284</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="3">
         <v>44562</v>
       </c>
       <c r="J365">
@@ -37416,7 +37421,7 @@
       <c r="H366" t="s">
         <v>48</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="3">
         <v>43983</v>
       </c>
       <c r="J366">
@@ -37502,7 +37507,7 @@
       <c r="H367" t="s">
         <v>203</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="3">
         <v>44378</v>
       </c>
       <c r="J367">
@@ -37588,7 +37593,7 @@
       <c r="H368" t="s">
         <v>345</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="3">
         <v>44075</v>
       </c>
       <c r="J368">
@@ -37674,7 +37679,7 @@
       <c r="H369" t="s">
         <v>164</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="3">
         <v>44197</v>
       </c>
       <c r="J369">
@@ -37760,7 +37765,7 @@
       <c r="H370" t="s">
         <v>235</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="3">
         <v>44774</v>
       </c>
       <c r="J370">
@@ -37846,7 +37851,7 @@
       <c r="H371" t="s">
         <v>907</v>
       </c>
-      <c r="I371">
+      <c r="I371" s="3">
         <v>44197</v>
       </c>
       <c r="J371">
@@ -37941,7 +37946,7 @@
       <c r="H372" t="s">
         <v>284</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="3">
         <v>45444</v>
       </c>
       <c r="J372">
@@ -38033,7 +38038,7 @@
       <c r="H373" t="s">
         <v>48</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="3">
         <v>44075</v>
       </c>
       <c r="J373">
@@ -38125,7 +38130,7 @@
       <c r="H374" t="s">
         <v>45</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="3">
         <v>44958</v>
       </c>
       <c r="J374">
@@ -38211,7 +38216,7 @@
       <c r="H375" t="s">
         <v>284</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="3">
         <v>44562</v>
       </c>
       <c r="J375">
@@ -38300,7 +38305,7 @@
       <c r="H376" t="s">
         <v>36</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="3">
         <v>45047</v>
       </c>
       <c r="J376">
@@ -38392,7 +38397,7 @@
       <c r="H377" t="s">
         <v>36</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="3">
         <v>45108</v>
       </c>
       <c r="J377">
@@ -38478,7 +38483,7 @@
       <c r="H378" t="s">
         <v>338</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="3">
         <v>45474</v>
       </c>
       <c r="J378">
@@ -38564,7 +38569,7 @@
       <c r="H379" t="s">
         <v>907</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="3">
         <v>45261</v>
       </c>
       <c r="J379">
@@ -38650,7 +38655,7 @@
       <c r="H380" t="s">
         <v>388</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="3">
         <v>44805</v>
       </c>
       <c r="J380">
@@ -38739,7 +38744,7 @@
       <c r="H381" t="s">
         <v>357</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="3">
         <v>45261</v>
       </c>
       <c r="J381">
@@ -38834,7 +38839,7 @@
       <c r="H382" t="s">
         <v>203</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="3">
         <v>44287</v>
       </c>
       <c r="J382">
@@ -38923,7 +38928,7 @@
       <c r="H383" t="s">
         <v>284</v>
       </c>
-      <c r="I383">
+      <c r="I383" s="3">
         <v>44896</v>
       </c>
       <c r="J383">
@@ -39018,7 +39023,7 @@
       <c r="H384" t="s">
         <v>316</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="3">
         <v>44652</v>
       </c>
       <c r="J384">
@@ -39104,7 +39109,7 @@
       <c r="H385" t="s">
         <v>326</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="3">
         <v>44896</v>
       </c>
       <c r="J385">
@@ -39190,7 +39195,7 @@
       <c r="H386" t="s">
         <v>284</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="3">
         <v>44927</v>
       </c>
       <c r="J386">
@@ -39276,7 +39281,7 @@
       <c r="H387" t="s">
         <v>36</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="3">
         <v>43739</v>
       </c>
       <c r="J387">
@@ -39362,7 +39367,7 @@
       <c r="H388" t="s">
         <v>907</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="3">
         <v>44805</v>
       </c>
       <c r="J388">
@@ -39448,7 +39453,7 @@
       <c r="H389" t="s">
         <v>309</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="3">
         <v>44531</v>
       </c>
       <c r="J389">
@@ -39540,7 +39545,7 @@
       <c r="H390" t="s">
         <v>284</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="3">
         <v>44562</v>
       </c>
       <c r="J390">
@@ -39629,7 +39634,7 @@
       <c r="H391" t="s">
         <v>284</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="3">
         <v>44562</v>
       </c>
       <c r="J391">
@@ -39715,7 +39720,7 @@
       <c r="H392" t="s">
         <v>748</v>
       </c>
-      <c r="I392">
+      <c r="I392" s="3">
         <v>45047</v>
       </c>
       <c r="J392">
@@ -39804,7 +39809,7 @@
       <c r="H393" t="s">
         <v>357</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="3">
         <v>42705</v>
       </c>
       <c r="J393">
@@ -39890,7 +39895,7 @@
       <c r="H394" t="s">
         <v>48</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="3">
         <v>45292</v>
       </c>
       <c r="J394">
@@ -39985,7 +39990,7 @@
       <c r="H395" t="s">
         <v>284</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="3">
         <v>44562</v>
       </c>
       <c r="J395">
@@ -40071,7 +40076,7 @@
       <c r="H396" t="s">
         <v>654</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="3">
         <v>45139</v>
       </c>
       <c r="J396">
@@ -40166,7 +40171,7 @@
       <c r="H397" t="s">
         <v>305</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="3">
         <v>45627</v>
       </c>
       <c r="J397">
@@ -40258,7 +40263,7 @@
       <c r="H398" t="s">
         <v>345</v>
       </c>
-      <c r="I398">
+      <c r="I398" s="3">
         <v>45170</v>
       </c>
       <c r="J398">
@@ -40350,7 +40355,7 @@
       <c r="H399" t="s">
         <v>843</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="3">
         <v>44075</v>
       </c>
       <c r="J399">
@@ -40439,7 +40444,7 @@
       <c r="H400" t="s">
         <v>284</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="3">
         <v>44562</v>
       </c>
       <c r="J400">
@@ -40528,7 +40533,7 @@
       <c r="H401" t="s">
         <v>284</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="3">
         <v>44562</v>
       </c>
       <c r="J401">
@@ -40617,7 +40622,7 @@
       <c r="H402" t="s">
         <v>166</v>
       </c>
-      <c r="I402">
+      <c r="I402" s="3">
         <v>44621</v>
       </c>
       <c r="J402">
@@ -40709,7 +40714,7 @@
       <c r="H403" t="s">
         <v>379</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="3">
         <v>45292</v>
       </c>
       <c r="J403">
@@ -40795,7 +40800,7 @@
       <c r="H404" t="s">
         <v>425</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="3">
         <v>45231</v>
       </c>
       <c r="J404">
@@ -40881,7 +40886,7 @@
       <c r="H405" t="s">
         <v>284</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="3">
         <v>44927</v>
       </c>
       <c r="J405">
@@ -40976,7 +40981,7 @@
       <c r="H406" t="s">
         <v>754</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="3">
         <v>45597</v>
       </c>
       <c r="J406">
@@ -41062,7 +41067,7 @@
       <c r="H407" t="s">
         <v>284</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="3">
         <v>44835</v>
       </c>
       <c r="J407">
@@ -41154,7 +41159,7 @@
       <c r="H408" t="s">
         <v>48</v>
       </c>
-      <c r="I408">
+      <c r="I408" s="3">
         <v>45292</v>
       </c>
       <c r="J408">
@@ -41243,7 +41248,7 @@
       <c r="H409" t="s">
         <v>48</v>
       </c>
-      <c r="I409">
+      <c r="I409" s="3">
         <v>45292</v>
       </c>
       <c r="J409">
@@ -41335,7 +41340,7 @@
       <c r="H410" t="s">
         <v>379</v>
       </c>
-      <c r="I410">
+      <c r="I410" s="3">
         <v>44562</v>
       </c>
       <c r="J410">
@@ -41424,7 +41429,7 @@
       <c r="H411" t="s">
         <v>48</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="3">
         <v>45292</v>
       </c>
       <c r="J411">
@@ -41513,7 +41518,7 @@
       <c r="H412" t="s">
         <v>274</v>
       </c>
-      <c r="I412">
+      <c r="I412" s="3">
         <v>44774</v>
       </c>
       <c r="J412">
@@ -41605,7 +41610,7 @@
       <c r="H413" t="s">
         <v>284</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="3">
         <v>44562</v>
       </c>
       <c r="J413">
@@ -41694,7 +41699,7 @@
       <c r="H414" t="s">
         <v>284</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="3">
         <v>44562</v>
       </c>
       <c r="J414">
@@ -41783,7 +41788,7 @@
       <c r="H415" t="s">
         <v>284</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="3">
         <v>44562</v>
       </c>
       <c r="J415">
@@ -41869,7 +41874,7 @@
       <c r="H416" t="s">
         <v>379</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="3">
         <v>44197</v>
       </c>
       <c r="J416">
@@ -41955,7 +41960,7 @@
       <c r="H417" t="s">
         <v>247</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="3">
         <v>44501</v>
       </c>
       <c r="J417">
@@ -42044,7 +42049,7 @@
       <c r="H418" t="s">
         <v>284</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="3">
         <v>44562</v>
       </c>
       <c r="J418">
@@ -42130,7 +42135,7 @@
       <c r="H419" t="s">
         <v>284</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="3">
         <v>44866</v>
       </c>
       <c r="J419">
@@ -42225,7 +42230,7 @@
       <c r="H420" t="s">
         <v>284</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="3">
         <v>44562</v>
       </c>
       <c r="J420">
@@ -42314,7 +42319,7 @@
       <c r="H421" t="s">
         <v>284</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="3">
         <v>44562</v>
       </c>
       <c r="J421">
@@ -42400,7 +42405,7 @@
       <c r="H422" t="s">
         <v>388</v>
       </c>
-      <c r="I422">
+      <c r="I422" s="3">
         <v>43709</v>
       </c>
       <c r="J422">
@@ -42486,7 +42491,7 @@
       <c r="H423" t="s">
         <v>326</v>
       </c>
-      <c r="I423">
+      <c r="I423" s="3">
         <v>44531</v>
       </c>
       <c r="J423">
@@ -42572,7 +42577,7 @@
       <c r="H424" t="s">
         <v>357</v>
       </c>
-      <c r="I424">
+      <c r="I424" s="3">
         <v>45627</v>
       </c>
       <c r="J424">
@@ -42658,7 +42663,7 @@
       <c r="H425" t="s">
         <v>509</v>
       </c>
-      <c r="I425">
+      <c r="I425" s="3">
         <v>38626</v>
       </c>
       <c r="J425">
@@ -42744,7 +42749,7 @@
       <c r="H426" t="s">
         <v>357</v>
       </c>
-      <c r="I426">
+      <c r="I426" s="3">
         <v>44774</v>
       </c>
       <c r="J426">
@@ -42830,7 +42835,7 @@
       <c r="H427" t="s">
         <v>316</v>
       </c>
-      <c r="I427">
+      <c r="I427" s="3">
         <v>44652</v>
       </c>
       <c r="J427">
@@ -42916,7 +42921,7 @@
       <c r="H428" t="s">
         <v>379</v>
       </c>
-      <c r="I428">
+      <c r="I428" s="3">
         <v>45444</v>
       </c>
       <c r="J428">
@@ -43005,7 +43010,7 @@
       <c r="H429" t="s">
         <v>402</v>
       </c>
-      <c r="I429">
+      <c r="I429" s="3">
         <v>44774</v>
       </c>
       <c r="J429">
@@ -43091,7 +43096,7 @@
       <c r="H430" t="s">
         <v>375</v>
       </c>
-      <c r="I430">
+      <c r="I430" s="3">
         <v>45139</v>
       </c>
       <c r="J430">
@@ -43177,7 +43182,7 @@
       <c r="H431" t="s">
         <v>326</v>
       </c>
-      <c r="I431">
+      <c r="I431" s="3">
         <v>44896</v>
       </c>
       <c r="J431">
@@ -43272,7 +43277,7 @@
       <c r="H432" t="s">
         <v>379</v>
       </c>
-      <c r="I432">
+      <c r="I432" s="3">
         <v>45292</v>
       </c>
       <c r="J432">
@@ -43367,7 +43372,7 @@
       <c r="H433" t="s">
         <v>48</v>
       </c>
-      <c r="I433">
+      <c r="I433" s="3">
         <v>44562</v>
       </c>
       <c r="J433">
@@ -43459,7 +43464,7 @@
       <c r="H434" t="s">
         <v>379</v>
       </c>
-      <c r="I434">
+      <c r="I434" s="3">
         <v>45261</v>
       </c>
       <c r="J434">
@@ -43554,7 +43559,7 @@
       <c r="H435" t="s">
         <v>284</v>
       </c>
-      <c r="I435">
+      <c r="I435" s="3">
         <v>44378</v>
       </c>
       <c r="J435">
@@ -43649,7 +43654,7 @@
       <c r="H436" t="s">
         <v>45</v>
       </c>
-      <c r="I436">
+      <c r="I436" s="3">
         <v>44378</v>
       </c>
       <c r="J436">
@@ -43738,7 +43743,7 @@
       <c r="H437" t="s">
         <v>1315</v>
       </c>
-      <c r="I437">
+      <c r="I437" s="3">
         <v>45261</v>
       </c>
       <c r="J437">
@@ -43827,7 +43832,7 @@
       <c r="H438" t="s">
         <v>314</v>
       </c>
-      <c r="I438">
+      <c r="I438" s="3">
         <v>45017</v>
       </c>
       <c r="J438">
@@ -43913,7 +43918,7 @@
       <c r="H439" t="s">
         <v>375</v>
       </c>
-      <c r="I439">
+      <c r="I439" s="3">
         <v>45139</v>
       </c>
       <c r="J439">
@@ -43999,7 +44004,7 @@
       <c r="H440" t="s">
         <v>364</v>
       </c>
-      <c r="I440">
+      <c r="I440" s="3">
         <v>44409</v>
       </c>
       <c r="J440">
@@ -44085,7 +44090,7 @@
       <c r="H441" t="s">
         <v>247</v>
       </c>
-      <c r="I441">
+      <c r="I441" s="3">
         <v>44501</v>
       </c>
       <c r="J441">
@@ -44171,7 +44176,7 @@
       <c r="H442" t="s">
         <v>284</v>
       </c>
-      <c r="I442">
+      <c r="I442" s="3">
         <v>44927</v>
       </c>
       <c r="J442">
@@ -44260,7 +44265,7 @@
       <c r="H443" t="s">
         <v>388</v>
       </c>
-      <c r="I443">
+      <c r="I443" s="3">
         <v>44044</v>
       </c>
       <c r="J443">
@@ -44349,7 +44354,7 @@
       <c r="H444" t="s">
         <v>342</v>
       </c>
-      <c r="I444">
+      <c r="I444" s="3">
         <v>44501</v>
       </c>
       <c r="J444">
@@ -44441,7 +44446,7 @@
       <c r="H445" t="s">
         <v>388</v>
       </c>
-      <c r="I445">
+      <c r="I445" s="3">
         <v>44348</v>
       </c>
       <c r="J445">
@@ -44530,7 +44535,7 @@
       <c r="H446" t="s">
         <v>48</v>
       </c>
-      <c r="I446">
+      <c r="I446" s="3">
         <v>44470</v>
       </c>
       <c r="J446">
@@ -44622,7 +44627,7 @@
       <c r="H447" t="s">
         <v>375</v>
       </c>
-      <c r="I447">
+      <c r="I447" s="3">
         <v>44774</v>
       </c>
       <c r="J447">
@@ -44708,7 +44713,7 @@
       <c r="H448" t="s">
         <v>326</v>
       </c>
-      <c r="I448">
+      <c r="I448" s="3">
         <v>45658</v>
       </c>
       <c r="J448">
@@ -44800,7 +44805,7 @@
       <c r="H449" t="s">
         <v>907</v>
       </c>
-      <c r="I449">
+      <c r="I449" s="3">
         <v>44805</v>
       </c>
       <c r="J449">
@@ -44892,7 +44897,7 @@
       <c r="H450" t="s">
         <v>36</v>
       </c>
-      <c r="I450">
+      <c r="I450" s="3">
         <v>44531</v>
       </c>
       <c r="J450">
@@ -44981,7 +44986,7 @@
       <c r="H451" t="s">
         <v>326</v>
       </c>
-      <c r="I451">
+      <c r="I451" s="3">
         <v>45261</v>
       </c>
       <c r="J451">
@@ -45070,7 +45075,7 @@
       <c r="H452" t="s">
         <v>748</v>
       </c>
-      <c r="I452">
+      <c r="I452" s="3">
         <v>45047</v>
       </c>
       <c r="J452">
@@ -45156,7 +45161,7 @@
       <c r="H453" t="s">
         <v>19</v>
       </c>
-      <c r="I453">
+      <c r="I453" s="3">
         <v>44287</v>
       </c>
       <c r="J453">
@@ -45245,7 +45250,7 @@
       <c r="H454" t="s">
         <v>36</v>
       </c>
-      <c r="I454">
+      <c r="I454" s="3">
         <v>44713</v>
       </c>
       <c r="J454">
@@ -45331,7 +45336,7 @@
       <c r="H455" t="s">
         <v>235</v>
       </c>
-      <c r="I455">
+      <c r="I455" s="3">
         <v>44044</v>
       </c>
       <c r="J455">
@@ -45420,7 +45425,7 @@
       <c r="H456" t="s">
         <v>364</v>
       </c>
-      <c r="I456">
+      <c r="I456" s="3">
         <v>44136</v>
       </c>
       <c r="J456">
@@ -45509,7 +45514,7 @@
       <c r="H457" t="s">
         <v>51</v>
       </c>
-      <c r="I457">
+      <c r="I457" s="3">
         <v>44166</v>
       </c>
       <c r="J457">
@@ -45598,7 +45603,7 @@
       <c r="H458" t="s">
         <v>342</v>
       </c>
-      <c r="I458">
+      <c r="I458" s="3">
         <v>45689</v>
       </c>
       <c r="J458">
@@ -45684,7 +45689,7 @@
       <c r="H459" t="s">
         <v>227</v>
       </c>
-      <c r="I459">
+      <c r="I459" s="3">
         <v>44562</v>
       </c>
       <c r="J459">
@@ -45773,7 +45778,7 @@
       <c r="H460" t="s">
         <v>305</v>
       </c>
-      <c r="I460">
+      <c r="I460" s="3">
         <v>45047</v>
       </c>
       <c r="J460">
@@ -45862,7 +45867,7 @@
       <c r="H461" t="s">
         <v>1399</v>
       </c>
-      <c r="I461">
+      <c r="I461" s="3">
         <v>45170</v>
       </c>
       <c r="J461">
@@ -45951,7 +45956,7 @@
       <c r="H462" t="s">
         <v>309</v>
       </c>
-      <c r="I462">
+      <c r="I462" s="3">
         <v>44958</v>
       </c>
       <c r="J462">
@@ -46040,7 +46045,7 @@
       <c r="H463" t="s">
         <v>402</v>
       </c>
-      <c r="I463">
+      <c r="I463" s="3">
         <v>45505</v>
       </c>
       <c r="J463">
@@ -46129,7 +46134,7 @@
       <c r="H464" t="s">
         <v>454</v>
       </c>
-      <c r="I464">
+      <c r="I464" s="3">
         <v>45627</v>
       </c>
       <c r="J464">
@@ -46224,7 +46229,7 @@
       <c r="H465" t="s">
         <v>1315</v>
       </c>
-      <c r="I465">
+      <c r="I465" s="3">
         <v>45474</v>
       </c>
       <c r="J465">
@@ -46310,7 +46315,7 @@
       <c r="H466" t="s">
         <v>379</v>
       </c>
-      <c r="I466">
+      <c r="I466" s="3">
         <v>44593</v>
       </c>
       <c r="J466">
@@ -46399,7 +46404,7 @@
       <c r="H467" t="s">
         <v>402</v>
       </c>
-      <c r="I467">
+      <c r="I467" s="3">
         <v>44348</v>
       </c>
       <c r="J467">
@@ -46488,7 +46493,7 @@
       <c r="H468" t="s">
         <v>314</v>
       </c>
-      <c r="I468">
+      <c r="I468" s="3">
         <v>44621</v>
       </c>
       <c r="J468">
@@ -46577,7 +46582,7 @@
       <c r="H469" t="s">
         <v>444</v>
       </c>
-      <c r="I469">
+      <c r="I469" s="3">
         <v>44713</v>
       </c>
       <c r="J469">
@@ -46666,7 +46671,7 @@
       <c r="H470" t="s">
         <v>1419</v>
       </c>
-      <c r="I470">
+      <c r="I470" s="3">
         <v>45017</v>
       </c>
       <c r="J470">
@@ -46761,7 +46766,7 @@
       <c r="H471" t="s">
         <v>357</v>
       </c>
-      <c r="I471">
+      <c r="I471" s="3">
         <v>44348</v>
       </c>
       <c r="J471">
@@ -46850,7 +46855,7 @@
       <c r="H472" t="s">
         <v>364</v>
       </c>
-      <c r="I472">
+      <c r="I472" s="3">
         <v>44044</v>
       </c>
       <c r="J472">
@@ -46936,7 +46941,7 @@
       <c r="H473" t="s">
         <v>345</v>
       </c>
-      <c r="I473">
+      <c r="I473" s="3">
         <v>44409</v>
       </c>
       <c r="J473">
@@ -47022,7 +47027,7 @@
       <c r="H474" t="s">
         <v>748</v>
       </c>
-      <c r="I474">
+      <c r="I474" s="3">
         <v>45170</v>
       </c>
       <c r="J474">
@@ -47111,7 +47116,7 @@
       <c r="H475" t="s">
         <v>48</v>
       </c>
-      <c r="I475">
+      <c r="I475" s="3">
         <v>44409</v>
       </c>
       <c r="J475">
@@ -47197,7 +47202,7 @@
       <c r="H476" t="s">
         <v>294</v>
       </c>
-      <c r="I476">
+      <c r="I476" s="3">
         <v>45292</v>
       </c>
       <c r="J476">
@@ -47283,7 +47288,7 @@
       <c r="H477" t="s">
         <v>235</v>
       </c>
-      <c r="I477">
+      <c r="I477" s="3">
         <v>44197</v>
       </c>
       <c r="J477">
@@ -47378,7 +47383,7 @@
       <c r="H478" t="s">
         <v>1439</v>
       </c>
-      <c r="I478">
+      <c r="I478" s="3">
         <v>45627</v>
       </c>
       <c r="J478">
@@ -47476,7 +47481,7 @@
       <c r="H479" t="s">
         <v>1443</v>
       </c>
-      <c r="I479">
+      <c r="I479" s="3">
         <v>45413</v>
       </c>
       <c r="J479">
@@ -47574,7 +47579,7 @@
       <c r="H480" t="s">
         <v>1447</v>
       </c>
-      <c r="I480">
+      <c r="I480" s="3">
         <v>45627</v>
       </c>
       <c r="J480">
@@ -47666,7 +47671,7 @@
       <c r="H481" t="s">
         <v>274</v>
       </c>
-      <c r="I481">
+      <c r="I481" s="3">
         <v>44531</v>
       </c>
       <c r="J481">
@@ -47752,7 +47757,7 @@
       <c r="H482" t="s">
         <v>589</v>
       </c>
-      <c r="I482">
+      <c r="I482" s="3">
         <v>44378</v>
       </c>
       <c r="J482">
@@ -47838,7 +47843,7 @@
       <c r="H483" t="s">
         <v>332</v>
       </c>
-      <c r="I483">
+      <c r="I483" s="3">
         <v>45078</v>
       </c>
       <c r="J483">
@@ -47927,7 +47932,7 @@
       <c r="H484" t="s">
         <v>284</v>
       </c>
-      <c r="I484">
+      <c r="I484" s="3">
         <v>44927</v>
       </c>
       <c r="J484">
@@ -48013,7 +48018,7 @@
       <c r="H485" t="s">
         <v>536</v>
       </c>
-      <c r="I485">
+      <c r="I485" s="3">
         <v>45078</v>
       </c>
       <c r="J485">
@@ -48099,7 +48104,7 @@
       <c r="H486" t="s">
         <v>284</v>
       </c>
-      <c r="I486">
+      <c r="I486" s="3">
         <v>44197</v>
       </c>
       <c r="J486">
@@ -48185,7 +48190,7 @@
       <c r="H487" t="s">
         <v>402</v>
       </c>
-      <c r="I487">
+      <c r="I487" s="3">
         <v>45170</v>
       </c>
       <c r="J487">
@@ -48274,7 +48279,7 @@
       <c r="H488" t="s">
         <v>536</v>
       </c>
-      <c r="I488">
+      <c r="I488" s="3">
         <v>44896</v>
       </c>
       <c r="J488">
@@ -48363,7 +48368,7 @@
       <c r="H489" t="s">
         <v>45</v>
       </c>
-      <c r="I489">
+      <c r="I489" s="3">
         <v>43101</v>
       </c>
       <c r="J489">
@@ -48449,7 +48454,7 @@
       <c r="H490" t="s">
         <v>345</v>
       </c>
-      <c r="I490">
+      <c r="I490" s="3">
         <v>44835</v>
       </c>
       <c r="J490">
@@ -48541,7 +48546,7 @@
       <c r="H491" t="s">
         <v>69</v>
       </c>
-      <c r="I491">
+      <c r="I491" s="3">
         <v>43922</v>
       </c>
       <c r="J491">
@@ -48627,7 +48632,7 @@
       <c r="H492" t="s">
         <v>30</v>
       </c>
-      <c r="I492">
+      <c r="I492" s="3">
         <v>41061</v>
       </c>
       <c r="J492">
@@ -48713,7 +48718,7 @@
       <c r="H493" t="s">
         <v>247</v>
       </c>
-      <c r="I493">
+      <c r="I493" s="3">
         <v>44470</v>
       </c>
       <c r="J493">
@@ -48802,7 +48807,7 @@
       <c r="H494" t="s">
         <v>316</v>
       </c>
-      <c r="I494">
+      <c r="I494" s="3">
         <v>43891</v>
       </c>
       <c r="J494">
@@ -48888,7 +48893,7 @@
       <c r="H495" t="s">
         <v>314</v>
       </c>
-      <c r="I495">
+      <c r="I495" s="3">
         <v>45352</v>
       </c>
       <c r="J495">
@@ -48974,7 +48979,7 @@
       <c r="H496" t="s">
         <v>430</v>
       </c>
-      <c r="I496">
+      <c r="I496" s="3">
         <v>45017</v>
       </c>
       <c r="J496">
@@ -49060,7 +49065,7 @@
       <c r="H497" t="s">
         <v>748</v>
       </c>
-      <c r="I497">
+      <c r="I497" s="3">
         <v>44348</v>
       </c>
       <c r="J497">
@@ -49149,7 +49154,7 @@
       <c r="H498" t="s">
         <v>520</v>
       </c>
-      <c r="I498">
+      <c r="I498" s="3">
         <v>43647</v>
       </c>
       <c r="J498">
@@ -49235,7 +49240,7 @@
       <c r="H499" t="s">
         <v>1399</v>
       </c>
-      <c r="I499">
+      <c r="I499" s="3">
         <v>44774</v>
       </c>
       <c r="J499">
@@ -49324,7 +49329,7 @@
       <c r="H500" t="s">
         <v>316</v>
       </c>
-      <c r="I500">
+      <c r="I500" s="3">
         <v>45170</v>
       </c>
       <c r="J500">
@@ -49410,7 +49415,7 @@
       <c r="H501" t="s">
         <v>589</v>
       </c>
-      <c r="I501">
+      <c r="I501" s="3">
         <v>45170</v>
       </c>
       <c r="J501">
@@ -49496,7 +49501,7 @@
       <c r="H502" t="s">
         <v>379</v>
       </c>
-      <c r="I502">
+      <c r="I502" s="3">
         <v>44470</v>
       </c>
       <c r="J502">
@@ -49582,7 +49587,7 @@
       <c r="H503" t="s">
         <v>345</v>
       </c>
-      <c r="I503">
+      <c r="I503" s="3">
         <v>45200</v>
       </c>
       <c r="J503">
@@ -49668,7 +49673,7 @@
       <c r="H504" t="s">
         <v>48</v>
       </c>
-      <c r="I504">
+      <c r="I504" s="3">
         <v>43770</v>
       </c>
       <c r="J504">
@@ -49757,7 +49762,7 @@
       <c r="H505" t="s">
         <v>342</v>
       </c>
-      <c r="I505">
+      <c r="I505" s="3">
         <v>44501</v>
       </c>
       <c r="J505">
@@ -49843,7 +49848,7 @@
       <c r="H506" t="s">
         <v>294</v>
       </c>
-      <c r="I506">
+      <c r="I506" s="3">
         <v>43800</v>
       </c>
       <c r="J506">
@@ -49932,7 +49937,7 @@
       <c r="H507" t="s">
         <v>353</v>
       </c>
-      <c r="I507">
+      <c r="I507" s="3">
         <v>44896</v>
       </c>
       <c r="J507">
@@ -50024,7 +50029,7 @@
       <c r="H508" t="s">
         <v>425</v>
       </c>
-      <c r="I508">
+      <c r="I508" s="3">
         <v>44896</v>
       </c>
       <c r="J508">
@@ -50116,7 +50121,7 @@
       <c r="H509" t="s">
         <v>907</v>
       </c>
-      <c r="I509">
+      <c r="I509" s="3">
         <v>40452</v>
       </c>
       <c r="J509">
@@ -50211,7 +50216,7 @@
       <c r="H510" t="s">
         <v>379</v>
       </c>
-      <c r="I510">
+      <c r="I510" s="3">
         <v>44682</v>
       </c>
       <c r="J510">
@@ -50306,7 +50311,7 @@
       <c r="H511" t="s">
         <v>540</v>
       </c>
-      <c r="I511">
+      <c r="I511" s="3">
         <v>44958</v>
       </c>
       <c r="J511">
@@ -50401,7 +50406,7 @@
       <c r="H512" t="s">
         <v>364</v>
       </c>
-      <c r="I512">
+      <c r="I512" s="3">
         <v>45474</v>
       </c>
       <c r="J512">
@@ -50493,7 +50498,7 @@
       <c r="H513" t="s">
         <v>520</v>
       </c>
-      <c r="I513">
+      <c r="I513" s="3">
         <v>44896</v>
       </c>
       <c r="J513">
@@ -50579,7 +50584,7 @@
       <c r="H514" t="s">
         <v>338</v>
       </c>
-      <c r="I514">
+      <c r="I514" s="3">
         <v>45748</v>
       </c>
       <c r="J514">
@@ -50665,7 +50670,7 @@
       <c r="H515" t="s">
         <v>1536</v>
       </c>
-      <c r="I515">
+      <c r="I515" s="3">
         <v>45261</v>
       </c>
       <c r="J515">
@@ -50751,7 +50756,7 @@
       <c r="H516" t="s">
         <v>1536</v>
       </c>
-      <c r="I516">
+      <c r="I516" s="3">
         <v>45748</v>
       </c>
       <c r="J516">
@@ -50837,7 +50842,7 @@
       <c r="H517" t="s">
         <v>484</v>
       </c>
-      <c r="I517">
+      <c r="I517" s="3">
         <v>45444</v>
       </c>
       <c r="J517">
@@ -50929,7 +50934,7 @@
       <c r="H518" t="s">
         <v>316</v>
       </c>
-      <c r="I518">
+      <c r="I518" s="3">
         <v>44896</v>
       </c>
       <c r="J518">
@@ -51015,7 +51020,7 @@
       <c r="H519" t="s">
         <v>1548</v>
       </c>
-      <c r="I519">
+      <c r="I519" s="3">
         <v>45047</v>
       </c>
       <c r="J519">
@@ -51101,7 +51106,7 @@
       <c r="H520" t="s">
         <v>364</v>
       </c>
-      <c r="I520">
+      <c r="I520" s="3">
         <v>44044</v>
       </c>
       <c r="J520">
@@ -51187,7 +51192,7 @@
       <c r="H521" t="s">
         <v>484</v>
       </c>
-      <c r="I521">
+      <c r="I521" s="3">
         <v>45261</v>
       </c>
       <c r="J521">
@@ -51279,7 +51284,7 @@
       <c r="H522" t="s">
         <v>305</v>
       </c>
-      <c r="I522">
+      <c r="I522" s="3">
         <v>45597</v>
       </c>
       <c r="J522">
@@ -51377,7 +51382,7 @@
       <c r="H523" t="s">
         <v>342</v>
       </c>
-      <c r="I523">
+      <c r="I523" s="3">
         <v>45566</v>
       </c>
       <c r="J523">
@@ -51475,7 +51480,7 @@
       <c r="H524" t="s">
         <v>379</v>
       </c>
-      <c r="I524">
+      <c r="I524" s="3">
         <v>45536</v>
       </c>
       <c r="J524">
@@ -51573,7 +51578,7 @@
       <c r="H525" t="s">
         <v>754</v>
       </c>
-      <c r="I525">
+      <c r="I525" s="3">
         <v>45536</v>
       </c>
       <c r="J525">
@@ -51668,7 +51673,7 @@
       <c r="H526" t="s">
         <v>477</v>
       </c>
-      <c r="I526">
+      <c r="I526" s="3">
         <v>44958</v>
       </c>
       <c r="J526">
@@ -51760,7 +51765,7 @@
       <c r="H527" t="s">
         <v>284</v>
       </c>
-      <c r="I527">
+      <c r="I527" s="3">
         <v>44593</v>
       </c>
       <c r="J527">
@@ -51846,7 +51851,7 @@
       <c r="H528" t="s">
         <v>342</v>
       </c>
-      <c r="I528">
+      <c r="I528" s="3">
         <v>45200</v>
       </c>
       <c r="J528">
@@ -51935,7 +51940,7 @@
       <c r="H529" t="s">
         <v>48</v>
       </c>
-      <c r="I529">
+      <c r="I529" s="3">
         <v>44197</v>
       </c>
       <c r="J529">
@@ -52030,7 +52035,7 @@
       <c r="H530" t="s">
         <v>36</v>
       </c>
-      <c r="I530">
+      <c r="I530" s="3">
         <v>45017</v>
       </c>
       <c r="J530">
@@ -52119,7 +52124,7 @@
       <c r="H531" t="s">
         <v>284</v>
       </c>
-      <c r="I531">
+      <c r="I531" s="3">
         <v>42461</v>
       </c>
       <c r="J531">
@@ -52205,7 +52210,7 @@
       <c r="H532" t="s">
         <v>1536</v>
       </c>
-      <c r="I532">
+      <c r="I532" s="3">
         <v>44652</v>
       </c>
       <c r="J532">
@@ -52297,7 +52302,7 @@
       <c r="H533" t="s">
         <v>338</v>
       </c>
-      <c r="I533">
+      <c r="I533" s="3">
         <v>45505</v>
       </c>
       <c r="J533">
@@ -52389,7 +52394,7 @@
       <c r="H534" t="s">
         <v>284</v>
       </c>
-      <c r="I534">
+      <c r="I534" s="3">
         <v>45658</v>
       </c>
       <c r="J534">
@@ -52475,7 +52480,7 @@
       <c r="H535" t="s">
         <v>48</v>
       </c>
-      <c r="I535">
+      <c r="I535" s="3">
         <v>45292</v>
       </c>
       <c r="J535">
@@ -52564,7 +52569,7 @@
       <c r="H536" t="s">
         <v>48</v>
       </c>
-      <c r="I536">
+      <c r="I536" s="3">
         <v>43800</v>
       </c>
       <c r="J536">
@@ -52659,7 +52664,7 @@
       <c r="H537" t="s">
         <v>48</v>
       </c>
-      <c r="I537">
+      <c r="I537" s="3">
         <v>43800</v>
       </c>
       <c r="J537">
@@ -52745,7 +52750,7 @@
       <c r="H538" t="s">
         <v>48</v>
       </c>
-      <c r="I538">
+      <c r="I538" s="3">
         <v>44075</v>
       </c>
       <c r="J538">
@@ -52834,7 +52839,7 @@
       <c r="H539" t="s">
         <v>589</v>
       </c>
-      <c r="I539">
+      <c r="I539" s="3">
         <v>45078</v>
       </c>
       <c r="J539">
@@ -52932,7 +52937,7 @@
       <c r="H540" t="s">
         <v>342</v>
       </c>
-      <c r="I540">
+      <c r="I540" s="3">
         <v>45597</v>
       </c>
       <c r="J540">
@@ -53018,7 +53023,7 @@
       <c r="H541" t="s">
         <v>379</v>
       </c>
-      <c r="I541">
+      <c r="I541" s="3">
         <v>44166</v>
       </c>
       <c r="J541">
@@ -53104,7 +53109,7 @@
       <c r="H542" t="s">
         <v>379</v>
       </c>
-      <c r="I542">
+      <c r="I542" s="3">
         <v>44166</v>
       </c>
       <c r="J542">
@@ -53196,7 +53201,7 @@
       <c r="H543" t="s">
         <v>305</v>
       </c>
-      <c r="I543">
+      <c r="I543" s="3">
         <v>44927</v>
       </c>
       <c r="J543">
@@ -53282,7 +53287,7 @@
       <c r="H544" t="s">
         <v>338</v>
       </c>
-      <c r="I544">
+      <c r="I544" s="3">
         <v>45383</v>
       </c>
       <c r="J544">
@@ -53368,7 +53373,7 @@
       <c r="H545" t="s">
         <v>379</v>
       </c>
-      <c r="I545">
+      <c r="I545" s="3">
         <v>44197</v>
       </c>
       <c r="J545">
@@ -53454,7 +53459,7 @@
       <c r="H546" t="s">
         <v>316</v>
       </c>
-      <c r="I546">
+      <c r="I546" s="3">
         <v>45809</v>
       </c>
       <c r="J546">
@@ -53543,7 +53548,7 @@
       <c r="H547" t="s">
         <v>1635</v>
       </c>
-      <c r="I547">
+      <c r="I547" s="3">
         <v>45047</v>
       </c>
       <c r="J547">
@@ -53629,7 +53634,7 @@
       <c r="H548" t="s">
         <v>353</v>
       </c>
-      <c r="I548">
+      <c r="I548" s="3">
         <v>44958</v>
       </c>
       <c r="J548">
@@ -53727,7 +53732,7 @@
       <c r="H549" t="s">
         <v>379</v>
       </c>
-      <c r="I549">
+      <c r="I549" s="3">
         <v>44927</v>
       </c>
       <c r="J549">
@@ -53819,7 +53824,7 @@
       <c r="H550" t="s">
         <v>36</v>
       </c>
-      <c r="I550">
+      <c r="I550" s="3">
         <v>44986</v>
       </c>
       <c r="J550">
@@ -53914,7 +53919,7 @@
       <c r="H551" t="s">
         <v>45</v>
       </c>
-      <c r="I551">
+      <c r="I551" s="3">
         <v>45078</v>
       </c>
       <c r="J551">
@@ -54009,7 +54014,7 @@
       <c r="H552" t="s">
         <v>4</v>
       </c>
-      <c r="I552">
+      <c r="I552" s="3">
         <v>45170</v>
       </c>
       <c r="J552">
@@ -54104,7 +54109,7 @@
       <c r="H553" t="s">
         <v>45</v>
       </c>
-      <c r="I553">
+      <c r="I553" s="3">
         <v>45078</v>
       </c>
       <c r="J553">
@@ -54199,7 +54204,7 @@
       <c r="H554" t="s">
         <v>36</v>
       </c>
-      <c r="I554">
+      <c r="I554" s="3">
         <v>45108</v>
       </c>
       <c r="J554">
@@ -54288,7 +54293,7 @@
       <c r="H555" t="s">
         <v>48</v>
       </c>
-      <c r="I555">
+      <c r="I555" s="3">
         <v>44927</v>
       </c>
       <c r="J555">
@@ -54380,7 +54385,7 @@
       <c r="H556" t="s">
         <v>48</v>
       </c>
-      <c r="I556">
+      <c r="I556" s="3">
         <v>45292</v>
       </c>
       <c r="J556">
@@ -54472,7 +54477,7 @@
       <c r="H557" t="s">
         <v>48</v>
       </c>
-      <c r="I557">
+      <c r="I557" s="3">
         <v>45292</v>
       </c>
       <c r="J557">
@@ -54564,7 +54569,7 @@
       <c r="H558" t="s">
         <v>48</v>
       </c>
-      <c r="I558">
+      <c r="I558" s="3">
         <v>45292</v>
       </c>
       <c r="J558">
@@ -54650,7 +54655,7 @@
       <c r="H559" t="s">
         <v>48</v>
       </c>
-      <c r="I559">
+      <c r="I559" s="3">
         <v>45292</v>
       </c>
       <c r="J559">
@@ -54739,7 +54744,7 @@
       <c r="H560" t="s">
         <v>284</v>
       </c>
-      <c r="I560">
+      <c r="I560" s="3">
         <v>45658</v>
       </c>
       <c r="J560">
@@ -54837,7 +54842,7 @@
       <c r="H561" t="s">
         <v>284</v>
       </c>
-      <c r="I561">
+      <c r="I561" s="3">
         <v>45658</v>
       </c>
       <c r="J561">
@@ -54938,7 +54943,7 @@
       <c r="H562" t="s">
         <v>284</v>
       </c>
-      <c r="I562">
+      <c r="I562" s="3">
         <v>45658</v>
       </c>
       <c r="J562">
@@ -55024,7 +55029,7 @@
       <c r="H563" t="s">
         <v>48</v>
       </c>
-      <c r="I563">
+      <c r="I563" s="3">
         <v>44197</v>
       </c>
       <c r="J563">
@@ -55119,7 +55124,7 @@
       <c r="H564" t="s">
         <v>48</v>
       </c>
-      <c r="I564">
+      <c r="I564" s="3">
         <v>45292</v>
       </c>
       <c r="J564">
@@ -55208,7 +55213,7 @@
       <c r="H565" t="s">
         <v>48</v>
       </c>
-      <c r="I565">
+      <c r="I565" s="3">
         <v>45292</v>
       </c>
       <c r="J565">
@@ -55297,7 +55302,7 @@
       <c r="H566" t="s">
         <v>326</v>
       </c>
-      <c r="I566">
+      <c r="I566" s="3">
         <v>45170</v>
       </c>
       <c r="J566">
@@ -55383,7 +55388,7 @@
       <c r="H567" t="s">
         <v>284</v>
       </c>
-      <c r="I567">
+      <c r="I567" s="3">
         <v>45170</v>
       </c>
       <c r="J567">
@@ -55481,7 +55486,7 @@
       <c r="H568" t="s">
         <v>316</v>
       </c>
-      <c r="I568">
+      <c r="I568" s="3">
         <v>45536</v>
       </c>
       <c r="J568">
@@ -55576,7 +55581,7 @@
       <c r="H569" t="s">
         <v>48</v>
       </c>
-      <c r="I569">
+      <c r="I569" s="3">
         <v>45292</v>
       </c>
       <c r="J569">
@@ -55671,7 +55676,7 @@
       <c r="H570" t="s">
         <v>48</v>
       </c>
-      <c r="I570">
+      <c r="I570" s="3">
         <v>45292</v>
       </c>
       <c r="J570">
@@ -55760,7 +55765,7 @@
       <c r="H571" t="s">
         <v>1315</v>
       </c>
-      <c r="I571">
+      <c r="I571" s="3">
         <v>45505</v>
       </c>
       <c r="J571">
